--- a/experiment result/64_0.8_40_zs40_kappa_lp.xlsx
+++ b/experiment result/64_0.8_40_zs40_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003613908238775998</v>
+        <v>0.005831370536839466</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003357112713854556</v>
+        <v>0.003991073871405092</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003272546241054137</v>
+        <v>0.007441754459263981</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.002638438528432169</v>
+        <v>0.02572562418642835</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.004337212442821263</v>
+        <v>0.00501951036676245</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.007624082908220901</v>
+        <v>0.04958318349585734</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.006593314464743599</v>
+        <v>0.004700091641033758</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002697010132465482</v>
+        <v>0.03828389806658809</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.004284427613609999</v>
+        <v>0.006523154996652773</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.008279957936596182</v>
+        <v>0.04466409831815733</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.002476291238784431</v>
+        <v>0.00874007331263222</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.008239399183977539</v>
+        <v>0.08716577300333112</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.004497752281719401</v>
+        <v>0.002577724508600805</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.002857731430649953</v>
+        <v>0.01098369947837765</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.004982166593190387</v>
+        <v>0.03796976368514805</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.003457501627671317</v>
+        <v>0.002531117682752484</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01260482067953375</v>
+        <v>0.01486076545939976</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.002975872139695835</v>
+        <v>0.001397024845414494</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.003949674451094234</v>
+        <v>0.005755580368968669</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.004487711542168911</v>
+        <v>0.007524074351576903</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.003279349390700696</v>
+        <v>0.004605244174280639</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.006594821005326277</v>
+        <v>0.002404584749282269</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.009203956415101975</v>
+        <v>0.02506361509964346</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.004743213891477802</v>
+        <v>0.0009483950258770656</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.002407505614135655</v>
+        <v>0.001225261842987656</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0032371609601399</v>
+        <v>0.01820183039472299</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.002921732722526459</v>
+        <v>0.01418416298615826</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.003588673267996785</v>
+        <v>0.01637344339111213</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.004059870006680634</v>
+        <v>0.02076086210289859</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.003077228416270225</v>
+        <v>0.01670157473053669</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.001668986020827424</v>
+        <v>0.0001089505462609892</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01188770628259738</v>
+        <v>0.002134822571103861</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.006789214966682876</v>
+        <v>0.006331535526192067</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.002134116263096917</v>
+        <v>0.0006968759304943273</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.001819357276143105</v>
+        <v>0.005185802643291473</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.007198633097572268</v>
+        <v>0.01082359180407323</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.002462111336768735</v>
+        <v>0.001445414518293904</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.003578372509535093</v>
+        <v>0.0007430601425351729</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.003807487526850774</v>
+        <v>0.007185321434578855</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02184353443471591</v>
+        <v>0.07490027957017861</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.003086083143292358</v>
+        <v>0.09660816818010391</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.004521392323909631</v>
+        <v>0.04506251691744657</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.001904858260505174</v>
+        <v>0.00733823338455232</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01332304696425397</v>
+        <v>0.00721930115141894</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.002749745256713452</v>
+        <v>0.001373987146815231</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.002945942256359396</v>
+        <v>0.004219648091950357</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.009240535571052829</v>
+        <v>0.03644527410604424</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.008514285594619522</v>
+        <v>0.001378557586273076</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.003453249070211809</v>
+        <v>0.00138634974882986</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.004661339397052013</v>
+        <v>0.001492202028241627</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.003840492288344975</v>
+        <v>0.00707507766332873</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.004000846436898723</v>
+        <v>0.01173786747522063</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.004014799053758881</v>
+        <v>2.489581787790701e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.003781256142981895</v>
+        <v>0.0002041744388277482</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01016712014162649</v>
+        <v>0.01774517478656382</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.005311545189697941</v>
+        <v>0.01287657945742472</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.001306120669324624</v>
+        <v>0.0007657593527871601</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.003466069020222153</v>
+        <v>0.002524167409570551</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02452690089790673</v>
+        <v>0.03744762166561817</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.009900535670282706</v>
+        <v>0.0008491357094468193</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.001363372822231377</v>
+        <v>0.0001046142233981978</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.00116926790106685</v>
+        <v>0.003061454922113047</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0038005461450203</v>
+        <v>0.02828065391098619</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.002522907314446874</v>
+        <v>0.002378898425831554</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.004016795283006161</v>
+        <v>0.009041898294857782</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.005294382698861541</v>
+        <v>0.02340812645165867</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.004020642655802192</v>
+        <v>0.001476204255218126</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.008294802776192491</v>
+        <v>0.003095117417937773</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.001132418543597618</v>
+        <v>0.0002283166205525048</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001063614845976291</v>
+        <v>0.003428481652243071</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.005653972439504005</v>
+        <v>0.001796294559231656</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01598275484645032</v>
+        <v>0.02354659874260289</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.008930892194557163</v>
+        <v>0.002433293940962445</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.006294634598023574</v>
+        <v>0.01222801643741476</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.002853431435005008</v>
+        <v>0.008604843357920994</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01194095119525091</v>
+        <v>0.07272772267663662</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.002274963197672281</v>
+        <v>2.226196930442116e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.002088681285387251</v>
+        <v>0.004159751890767618</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02406803138036327</v>
+        <v>0.007048993453301478</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.001931811597532762</v>
+        <v>0.0001506499404799445</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.002817194692987714</v>
+        <v>0.001303511021090282</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01323613336841537</v>
+        <v>0.004170236304649621</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01145531079496889</v>
+        <v>0.008162879549119732</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01684267060233666</v>
+        <v>0.01182882636444494</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.006433686053787864</v>
+        <v>0.08680898859730778</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.002914015152653939</v>
+        <v>0.01164383598979309</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01162213399128336</v>
+        <v>0.008026862548531187</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.02134309428398122</v>
+        <v>0.01282179394913316</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.003327274966333111</v>
+        <v>0.01711176049625</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.006014661197617563</v>
+        <v>0.001436226260317917</v>
       </c>
     </row>
   </sheetData>
